--- a/Listado de precios.xlsx
+++ b/Listado de precios.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan\Documents\Segundo-Semestre-24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4007241F-2695-4889-954F-CEA9A04B8508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874911E3-E5FC-43A3-BD85-BBF41575348D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A1D2865A-F593-48D8-AD5B-9FCAED981477}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{A1D2865A-F593-48D8-AD5B-9FCAED981477}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
   <si>
     <t xml:space="preserve">Ajonjoli </t>
   </si>
@@ -151,6 +153,72 @@
   </si>
   <si>
     <t>Costal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caja de Licor </t>
+  </si>
+  <si>
+    <t>48 unidades</t>
+  </si>
+  <si>
+    <t>GALLO 16</t>
+  </si>
+  <si>
+    <t>ICE 12 OZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICE 16 OZ </t>
+  </si>
+  <si>
+    <t>Corona lata 12oz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caja de orange </t>
+  </si>
+  <si>
+    <t xml:space="preserve">caja coca botella </t>
+  </si>
+  <si>
+    <t>raptor desechable</t>
+  </si>
+  <si>
+    <t>coca lata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruta Fresca </t>
+  </si>
+  <si>
+    <t>Limonadad con soda</t>
+  </si>
+  <si>
+    <t>fosforo de 10 paqu</t>
+  </si>
+  <si>
+    <t>fosforo paquete de 10 und</t>
+  </si>
+  <si>
+    <t>fosforo unidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolsa de agua pura </t>
+  </si>
+  <si>
+    <t>Agua pura salvavidas 12 un</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jugo de la granja </t>
+  </si>
+  <si>
+    <t>7.50 cada uno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V8 del frutal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tortrix doc </t>
+  </si>
+  <si>
+    <t>tortrix taco</t>
   </si>
 </sst>
 </file>
@@ -529,7 +597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D1175F8-2C7A-4824-88BB-5721D718A6F7}">
   <dimension ref="D8:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="D39" sqref="D39:F45"/>
     </sheetView>
   </sheetViews>
@@ -869,4 +937,207 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08DF47FD-C3D9-4389-858D-B22F9241D6AC}">
+  <dimension ref="D7:F11"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B00991DA-B335-496E-B732-DEB159B120EA}">
+  <dimension ref="E7:G23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="27.28515625" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20">
+        <v>73</v>
+      </c>
+      <c r="G20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Listado de precios.xlsx
+++ b/Listado de precios.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan\Documents\Segundo-Semestre-24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874911E3-E5FC-43A3-BD85-BBF41575348D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25CB2F9-B624-4C42-9C50-ADC3E5027AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{A1D2865A-F593-48D8-AD5B-9FCAED981477}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{A1D2865A-F593-48D8-AD5B-9FCAED981477}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja4" sheetId="4" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId3"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="130">
   <si>
     <t xml:space="preserve">Ajonjoli </t>
   </si>
@@ -158,9 +159,6 @@
     <t xml:space="preserve">Caja de Licor </t>
   </si>
   <si>
-    <t>48 unidades</t>
-  </si>
-  <si>
     <t>GALLO 16</t>
   </si>
   <si>
@@ -194,12 +192,6 @@
     <t>fosforo de 10 paqu</t>
   </si>
   <si>
-    <t>fosforo paquete de 10 und</t>
-  </si>
-  <si>
-    <t>fosforo unidad</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bolsa de agua pura </t>
   </si>
   <si>
@@ -219,13 +211,220 @@
   </si>
   <si>
     <t>tortrix taco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encendedor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a 3 cada uno </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esponja verde delgada </t>
+  </si>
+  <si>
+    <t>a 1.25 cada uno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esponja de metal grande </t>
+  </si>
+  <si>
+    <t>a 3.50 cada uno</t>
+  </si>
+  <si>
+    <t>Caja de curita</t>
+  </si>
+  <si>
+    <t>a 0.25 cada uno</t>
+  </si>
+  <si>
+    <t>cepillo de diente</t>
+  </si>
+  <si>
+    <t>dar a 3 cada uno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a 4.50 paquete </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a 4 cada uno </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a 6 cada uno</t>
+  </si>
+  <si>
+    <t>a 0.5 unidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a 4 cada uno </t>
+  </si>
+  <si>
+    <t>a 9 cada uno</t>
+  </si>
+  <si>
+    <t>a 11 cada uno</t>
+  </si>
+  <si>
+    <t>a 6 cada uno</t>
+  </si>
+  <si>
+    <t>a 7 cada uno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a 10 cada uno </t>
+  </si>
+  <si>
+    <t>Litro de quetzalteca</t>
+  </si>
+  <si>
+    <t>a 55 la unidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">litro de sabor quetzaltenca </t>
+  </si>
+  <si>
+    <t>a 65 la unidad</t>
+  </si>
+  <si>
+    <t>a 50 cada uno</t>
+  </si>
+  <si>
+    <t>a 30 cada uno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el cuarto de venado azul </t>
+  </si>
+  <si>
+    <t>a 25 cada uno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">el cuarto de xl </t>
+  </si>
+  <si>
+    <t xml:space="preserve">558 la caja de 36unidades </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a 18 cada uno con todo y envase </t>
+  </si>
+  <si>
+    <t>459 la caja de 36 unidades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">540 la caja de 12 unidadees </t>
+  </si>
+  <si>
+    <t>558 caja de 24 unidades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cuarto de VENADO ROJO  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cuarto de QUETZALTECA </t>
+  </si>
+  <si>
+    <t>468 la caja de 12 unidades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">media botella  del venado azul </t>
+  </si>
+  <si>
+    <t xml:space="preserve">media botella de xl </t>
+  </si>
+  <si>
+    <t>botella grande XL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">botella grande venado azul </t>
+  </si>
+  <si>
+    <t>el cuarto de OLD FRIEND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A 25 cada uno </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PENDIENTE QUE SUBIO </t>
+  </si>
+  <si>
+    <t>336 caja de 48 unidades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">197 caja de 24 unidades </t>
+  </si>
+  <si>
+    <t xml:space="preserve">91 caja de 24 unidades </t>
+  </si>
+  <si>
+    <t xml:space="preserve">120 caja de 24 unidades </t>
+  </si>
+  <si>
+    <t xml:space="preserve">140 caja de 24 unidades </t>
+  </si>
+  <si>
+    <t>550.74 caja de 36 -----</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pasta corta ina </t>
+  </si>
+  <si>
+    <t>Codito</t>
+  </si>
+  <si>
+    <t>Codo</t>
+  </si>
+  <si>
+    <t>Caracol</t>
+  </si>
+  <si>
+    <t>Caracolito</t>
+  </si>
+  <si>
+    <t>Espaguetti</t>
+  </si>
+  <si>
+    <t>cabello de angel (entre fino)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21  las 6 unidades </t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.04 las 12 unidades </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 cada uno </t>
+  </si>
+  <si>
+    <t>Salsa inglesa 5 oz</t>
+  </si>
+  <si>
+    <t>Salsa soya 3 oz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 cada uno </t>
+  </si>
+  <si>
+    <t>38.04 las 12 unidades</t>
+  </si>
+  <si>
+    <t>Panqueque de 3Lb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37 cada uno </t>
+  </si>
+  <si>
+    <t xml:space="preserve">101.25 las 3 unidades </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50 cada uno (media libra) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50cada uno (media libra) </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,6 +436,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -277,10 +482,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -296,6 +507,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>516397</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>6575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18CAB096-8908-41F3-8F30-BFF228ADD995}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="5817511" y="1897739"/>
+          <a:ext cx="4388075" cy="7831597"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -597,15 +857,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D1175F8-2C7A-4824-88BB-5721D718A6F7}">
   <dimension ref="D8:F45"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39:F45"/>
+    <sheetView topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="22.7109375" customWidth="1"/>
     <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="8" spans="4:6" x14ac:dyDescent="0.25">
@@ -940,16 +1200,151 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08DF47FD-C3D9-4389-858D-B22F9241D6AC}">
-  <dimension ref="D7:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18188826-6E2D-46F8-A787-946A93237DD8}">
+  <dimension ref="E7:H17"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" customWidth="1"/>
+    <col min="7" max="7" width="27.85546875" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E7" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E8" s="3"/>
+      <c r="F8" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" t="s">
+        <v>129</v>
+      </c>
+      <c r="H8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E9" s="3"/>
+      <c r="F9" t="s">
+        <v>114</v>
+      </c>
+      <c r="G9" t="s">
+        <v>129</v>
+      </c>
+      <c r="H9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E10" s="3"/>
+      <c r="F10" t="s">
+        <v>115</v>
+      </c>
+      <c r="G10" t="s">
+        <v>129</v>
+      </c>
+      <c r="H10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E11" s="3"/>
+      <c r="F11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" t="s">
+        <v>129</v>
+      </c>
+      <c r="H11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E12" s="3"/>
+      <c r="F12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" t="s">
+        <v>129</v>
+      </c>
+      <c r="H12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>121</v>
+      </c>
+      <c r="G14" t="s">
+        <v>120</v>
+      </c>
+      <c r="H14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>122</v>
+      </c>
+      <c r="G15" t="s">
+        <v>123</v>
+      </c>
+      <c r="H15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>125</v>
+      </c>
+      <c r="G17" t="s">
+        <v>126</v>
+      </c>
+      <c r="H17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E7:E12"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08DF47FD-C3D9-4389-858D-B22F9241D6AC}">
+  <dimension ref="D7:G27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="26.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:6" x14ac:dyDescent="0.25">
@@ -957,55 +1352,196 @@
         <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7">
-        <v>336</v>
+        <v>76</v>
+      </c>
+      <c r="F7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8">
-        <v>197</v>
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9">
-        <v>91</v>
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10">
-        <v>120</v>
+        <v>45</v>
+      </c>
+      <c r="E10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11">
-        <v>140</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="E11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" t="s">
+        <v>110</v>
+      </c>
+      <c r="G21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E24" s="4"/>
+    </row>
+    <row r="26" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E27" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E26:E27"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B00991DA-B335-496E-B732-DEB159B120EA}">
-  <dimension ref="E7:G23"/>
+  <dimension ref="E7:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="B22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O50" sqref="O50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1014,84 +1550,108 @@
     <col min="7" max="7" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F7">
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8">
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F9">
         <v>70</v>
       </c>
-    </row>
-    <row r="10" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F10">
         <v>110</v>
       </c>
-    </row>
-    <row r="11" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F11">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="5:6" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="G11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F12">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F13">
         <v>38</v>
       </c>
-    </row>
-    <row r="15" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F15">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16">
-        <v>4.5</v>
+      <c r="G15" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17">
+        <v>40</v>
+      </c>
+      <c r="G17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
         <v>56</v>
       </c>
-      <c r="F17">
-        <v>0.5</v>
+      <c r="F18">
+        <v>73</v>
+      </c>
+      <c r="G18" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="5:7" x14ac:dyDescent="0.25">
@@ -1099,7 +1659,7 @@
         <v>58</v>
       </c>
       <c r="F19">
-        <v>40</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="5:7" x14ac:dyDescent="0.25">
@@ -1107,34 +1667,70 @@
         <v>59</v>
       </c>
       <c r="F20">
-        <v>73</v>
-      </c>
-      <c r="G20" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F21">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E22" t="s">
-        <v>62</v>
-      </c>
-      <c r="F22">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23">
+        <v>55</v>
+      </c>
+      <c r="G23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
         <v>63</v>
       </c>
-      <c r="F23">
-        <v>21</v>
+      <c r="F24">
+        <v>9</v>
+      </c>
+      <c r="G24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25">
+        <v>40</v>
+      </c>
+      <c r="G25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26">
+        <v>18</v>
+      </c>
+      <c r="G26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>69</v>
+      </c>
+      <c r="F27">
+        <v>25</v>
+      </c>
+      <c r="G27" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Listado de precios.xlsx
+++ b/Listado de precios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan\Documents\Segundo-Semestre-24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ubicacion C a D\Documentos\Segundo-Semestre-24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25CB2F9-B624-4C42-9C50-ADC3E5027AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8018EF89-7794-4A39-945E-C52FCC95A288}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{A1D2865A-F593-48D8-AD5B-9FCAED981477}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{A1D2865A-F593-48D8-AD5B-9FCAED981477}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId3"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="132">
   <si>
     <t xml:space="preserve">Ajonjoli </t>
   </si>
@@ -418,6 +418,12 @@
   </si>
   <si>
     <t xml:space="preserve">4.50cada uno (media libra) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">caja de licor sabor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">384 caja de 48 unidades </t>
   </si>
 </sst>
 </file>
@@ -861,14 +867,14 @@
       <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="22.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="22.7265625" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" customWidth="1"/>
+    <col min="6" max="6" width="13.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D8" s="2" t="s">
         <v>0</v>
       </c>
@@ -879,7 +885,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="9" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D9" s="2"/>
       <c r="E9" s="1" t="s">
         <v>2</v>
@@ -888,7 +894,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D10" s="2"/>
       <c r="E10" s="1" t="s">
         <v>3</v>
@@ -897,12 +903,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D11" s="2"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D12" s="2" t="s">
         <v>4</v>
       </c>
@@ -913,7 +919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D13" s="2"/>
       <c r="E13" s="1" t="s">
         <v>6</v>
@@ -922,7 +928,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D14" s="2"/>
       <c r="E14" s="1" t="s">
         <v>2</v>
@@ -931,12 +937,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D15" s="2"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D16" s="2" t="s">
         <v>7</v>
       </c>
@@ -947,7 +953,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D17" s="2"/>
       <c r="E17" s="1" t="s">
         <v>9</v>
@@ -956,12 +962,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D18" s="2"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D19" s="2" t="s">
         <v>10</v>
       </c>
@@ -972,7 +978,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D20" s="2"/>
       <c r="E20" s="1" t="s">
         <v>11</v>
@@ -981,7 +987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D21" s="2"/>
       <c r="E21" s="1" t="s">
         <v>12</v>
@@ -990,12 +996,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D22" s="2"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D23" s="2" t="s">
         <v>13</v>
       </c>
@@ -1006,7 +1012,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D24" s="2" t="s">
         <v>15</v>
       </c>
@@ -1017,7 +1023,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D25" s="2" t="s">
         <v>17</v>
       </c>
@@ -1026,7 +1032,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D26" s="2" t="s">
         <v>18</v>
       </c>
@@ -1035,7 +1041,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D27" s="2" t="s">
         <v>19</v>
       </c>
@@ -1044,7 +1050,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="28" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D28" s="2" t="s">
         <v>20</v>
       </c>
@@ -1053,7 +1059,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D29" s="2" t="s">
         <v>21</v>
       </c>
@@ -1062,7 +1068,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="30" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D30" s="2" t="s">
         <v>22</v>
       </c>
@@ -1071,7 +1077,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D31" s="2" t="s">
         <v>23</v>
       </c>
@@ -1080,7 +1086,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="32" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D32" s="2" t="s">
         <v>24</v>
       </c>
@@ -1089,7 +1095,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D33" s="2" t="s">
         <v>25</v>
       </c>
@@ -1100,7 +1106,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D34" s="2" t="s">
         <v>27</v>
       </c>
@@ -1111,7 +1117,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D35" s="2" t="s">
         <v>29</v>
       </c>
@@ -1122,7 +1128,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D36" s="2" t="s">
         <v>31</v>
       </c>
@@ -1133,7 +1139,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D39" s="2" t="s">
         <v>33</v>
       </c>
@@ -1144,7 +1150,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="40" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D40" s="2"/>
       <c r="E40" s="1" t="s">
         <v>34</v>
@@ -1153,7 +1159,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D41" s="2"/>
       <c r="E41" s="1" t="s">
         <v>36</v>
@@ -1162,12 +1168,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D42" s="2"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D43" s="2" t="s">
         <v>25</v>
       </c>
@@ -1178,7 +1184,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="44" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D44" s="2" t="s">
         <v>39</v>
       </c>
@@ -1189,7 +1195,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="45" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -1203,19 +1209,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18188826-6E2D-46F8-A787-946A93237DD8}">
   <dimension ref="E7:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" customWidth="1"/>
-    <col min="7" max="7" width="27.85546875" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.7265625" customWidth="1"/>
+    <col min="6" max="6" width="27.1796875" customWidth="1"/>
+    <col min="7" max="7" width="27.81640625" customWidth="1"/>
+    <col min="8" max="8" width="20.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E7" s="3" t="s">
         <v>111</v>
       </c>
@@ -1229,7 +1235,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E8" s="3"/>
       <c r="F8" t="s">
         <v>113</v>
@@ -1241,7 +1247,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E9" s="3"/>
       <c r="F9" t="s">
         <v>114</v>
@@ -1253,7 +1259,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E10" s="3"/>
       <c r="F10" t="s">
         <v>115</v>
@@ -1265,7 +1271,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E11" s="3"/>
       <c r="F11" t="s">
         <v>116</v>
@@ -1277,7 +1283,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E12" s="3"/>
       <c r="F12" t="s">
         <v>117</v>
@@ -1289,7 +1295,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="5:8" x14ac:dyDescent="0.35">
       <c r="F14" t="s">
         <v>121</v>
       </c>
@@ -1300,7 +1306,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="15" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="5:8" x14ac:dyDescent="0.35">
       <c r="F15" t="s">
         <v>122</v>
       </c>
@@ -1311,7 +1317,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F17" t="s">
         <v>125</v>
       </c>
@@ -1334,20 +1340,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08DF47FD-C3D9-4389-858D-B22F9241D6AC}">
-  <dimension ref="D7:G27"/>
+  <dimension ref="D6:G27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="26.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="26.7265625" customWidth="1"/>
+    <col min="5" max="5" width="16.7265625" customWidth="1"/>
+    <col min="6" max="6" width="24.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D7" t="s">
         <v>42</v>
       </c>
@@ -1358,7 +1375,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D8" t="s">
         <v>43</v>
       </c>
@@ -1369,7 +1386,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D9" t="s">
         <v>44</v>
       </c>
@@ -1380,7 +1397,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D10" t="s">
         <v>45</v>
       </c>
@@ -1391,7 +1408,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D11" t="s">
         <v>46</v>
       </c>
@@ -1402,7 +1419,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="13" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D13" t="s">
         <v>81</v>
       </c>
@@ -1413,7 +1430,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D14" t="s">
         <v>83</v>
       </c>
@@ -1421,7 +1438,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D15" t="s">
         <v>101</v>
       </c>
@@ -1432,7 +1449,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D16" t="s">
         <v>100</v>
       </c>
@@ -1443,7 +1460,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D17" t="s">
         <v>98</v>
       </c>
@@ -1454,7 +1471,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D18" t="s">
         <v>99</v>
       </c>
@@ -1462,7 +1479,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D19" t="s">
         <v>87</v>
       </c>
@@ -1473,7 +1490,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D20" t="s">
         <v>89</v>
       </c>
@@ -1484,7 +1501,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D21" t="s">
         <v>102</v>
       </c>
@@ -1498,7 +1515,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D23" t="s">
         <v>95</v>
       </c>
@@ -1509,10 +1526,10 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:7" x14ac:dyDescent="0.35">
       <c r="E24" s="4"/>
     </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D26" t="s">
         <v>96</v>
       </c>
@@ -1523,7 +1540,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:7" x14ac:dyDescent="0.35">
       <c r="E27" s="4"/>
     </row>
   </sheetData>
@@ -1540,17 +1557,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B00991DA-B335-496E-B732-DEB159B120EA}">
   <dimension ref="E7:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="B22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O50" sqref="O50"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N50" sqref="N50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="27.28515625" customWidth="1"/>
+    <col min="5" max="5" width="27.26953125" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E7" t="s">
         <v>47</v>
       </c>
@@ -1558,7 +1575,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E8" t="s">
         <v>48</v>
       </c>
@@ -1566,7 +1583,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E9" t="s">
         <v>49</v>
       </c>
@@ -1577,7 +1594,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E10" t="s">
         <v>50</v>
       </c>
@@ -1588,7 +1605,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E11" t="s">
         <v>51</v>
       </c>
@@ -1599,7 +1616,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E12" t="s">
         <v>54</v>
       </c>
@@ -1607,7 +1624,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E13" t="s">
         <v>52</v>
       </c>
@@ -1618,7 +1635,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E15" t="s">
         <v>53</v>
       </c>
@@ -1632,7 +1649,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E17" t="s">
         <v>55</v>
       </c>
@@ -1643,7 +1660,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E18" t="s">
         <v>56</v>
       </c>
@@ -1654,7 +1671,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E19" t="s">
         <v>58</v>
       </c>
@@ -1662,7 +1679,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E20" t="s">
         <v>59</v>
       </c>
@@ -1670,7 +1687,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E21" t="s">
         <v>60</v>
       </c>
@@ -1678,7 +1695,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E23" t="s">
         <v>61</v>
       </c>
@@ -1689,7 +1706,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E24" t="s">
         <v>63</v>
       </c>
@@ -1700,7 +1717,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E25" t="s">
         <v>65</v>
       </c>
@@ -1711,7 +1728,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E26" t="s">
         <v>67</v>
       </c>
@@ -1722,7 +1739,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E27" t="s">
         <v>69</v>
       </c>

--- a/Listado de precios.xlsx
+++ b/Listado de precios.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ubicacion C a D\Documentos\Segundo-Semestre-24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8018EF89-7794-4A39-945E-C52FCC95A288}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC93C61-FE33-4A9E-AF6E-A65EA01691E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{A1D2865A-F593-48D8-AD5B-9FCAED981477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{A1D2865A-F593-48D8-AD5B-9FCAED981477}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja4" sheetId="4" r:id="rId2"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId3"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId4"/>
+    <sheet name="Hoja5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="145">
   <si>
     <t xml:space="preserve">Ajonjoli </t>
   </si>
@@ -424,6 +425,45 @@
   </si>
   <si>
     <t xml:space="preserve">384 caja de 48 unidades </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dulces y chicles </t>
+  </si>
+  <si>
+    <t>BOMBON DULCE SANDIA DOLCHE 24 PZ</t>
+  </si>
+  <si>
+    <t>HALLS PEPA MENTA</t>
+  </si>
+  <si>
+    <t>HALLS PEPA MORA CREMOSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHICLE  DE LA ROSA </t>
+  </si>
+  <si>
+    <t>100 Piezas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHICLE ACIDITA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DULCE MENTA COLOMBIANA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 Piezaas </t>
+  </si>
+  <si>
+    <t>24 Piezas</t>
+  </si>
+  <si>
+    <t>TRIDENT RESH SANDIA</t>
+  </si>
+  <si>
+    <t>.50 centavos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 X 1 quetzal </t>
   </si>
 </sst>
 </file>
@@ -488,7 +528,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -497,6 +537,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -553,6 +596,55 @@
         <a:xfrm rot="16200000">
           <a:off x="5817511" y="1897739"/>
           <a:ext cx="4388075" cy="7831597"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>204872</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>169172</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57CB1641-994B-F206-1879-D45A43E5EE08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="3130550"/>
+          <a:ext cx="11984122" cy="6430272"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -863,7 +955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D1175F8-2C7A-4824-88BB-5721D718A6F7}">
   <dimension ref="D8:F45"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
@@ -1209,7 +1301,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18188826-6E2D-46F8-A787-946A93237DD8}">
   <dimension ref="E7:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -1342,8 +1434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08DF47FD-C3D9-4389-858D-B22F9241D6AC}">
   <dimension ref="D6:G27"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1557,8 +1649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B00991DA-B335-496E-B732-DEB159B120EA}">
   <dimension ref="E7:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N50" sqref="N50"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1753,4 +1845,113 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5CBC578-FEB1-46B5-91E7-DC15C1429E8F}">
+  <dimension ref="E5:H14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="33.453125" customWidth="1"/>
+    <col min="7" max="7" width="15.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E8" t="s">
+        <v>142</v>
+      </c>
+      <c r="G8" t="s">
+        <v>143</v>
+      </c>
+      <c r="H8" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G9" t="s">
+        <v>143</v>
+      </c>
+      <c r="H9" s="5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E10" t="s">
+        <v>135</v>
+      </c>
+      <c r="G10" t="s">
+        <v>143</v>
+      </c>
+      <c r="H10" s="5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F11" t="s">
+        <v>141</v>
+      </c>
+      <c r="G11" t="s">
+        <v>143</v>
+      </c>
+      <c r="H11" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E12" t="s">
+        <v>136</v>
+      </c>
+      <c r="F12" t="s">
+        <v>137</v>
+      </c>
+      <c r="G12" t="s">
+        <v>143</v>
+      </c>
+      <c r="H12" s="5">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="13" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E13" t="s">
+        <v>138</v>
+      </c>
+      <c r="H13" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E14" t="s">
+        <v>139</v>
+      </c>
+      <c r="F14" t="s">
+        <v>140</v>
+      </c>
+      <c r="G14" t="s">
+        <v>144</v>
+      </c>
+      <c r="H14" s="5">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Listado de precios.xlsx
+++ b/Listado de precios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ubicacion C a D\Documentos\Segundo-Semestre-24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC93C61-FE33-4A9E-AF6E-A65EA01691E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85063774-5716-4BD7-A904-8415BB3903B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{A1D2865A-F593-48D8-AD5B-9FCAED981477}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{A1D2865A-F593-48D8-AD5B-9FCAED981477}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="148">
   <si>
     <t xml:space="preserve">Ajonjoli </t>
   </si>
@@ -139,9 +139,6 @@
     <t>150 ocotes</t>
   </si>
   <si>
-    <t xml:space="preserve">La unidad sale a </t>
-  </si>
-  <si>
     <t>1.50 cada uno</t>
   </si>
   <si>
@@ -464,6 +461,18 @@
   </si>
   <si>
     <t xml:space="preserve">3 X 1 quetzal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chile Faro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La unidad por mayor </t>
+  </si>
+  <si>
+    <t>Unidad Vender</t>
+  </si>
+  <si>
+    <t>por mayor</t>
   </si>
 </sst>
 </file>
@@ -533,13 +542,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -953,20 +962,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D1175F8-2C7A-4824-88BB-5721D718A6F7}">
-  <dimension ref="D8:F45"/>
+  <dimension ref="D8:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="22.7265625" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" customWidth="1"/>
-    <col min="6" max="6" width="13.81640625" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D8" s="2" t="s">
         <v>0</v>
       </c>
@@ -977,7 +986,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="9" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D9" s="2"/>
       <c r="E9" s="1" t="s">
         <v>2</v>
@@ -986,7 +995,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D10" s="2"/>
       <c r="E10" s="1" t="s">
         <v>3</v>
@@ -995,12 +1004,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D11" s="2"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D12" s="2" t="s">
         <v>4</v>
       </c>
@@ -1011,7 +1020,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D13" s="2"/>
       <c r="E13" s="1" t="s">
         <v>6</v>
@@ -1020,7 +1029,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D14" s="2"/>
       <c r="E14" s="1" t="s">
         <v>2</v>
@@ -1029,12 +1038,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D15" s="2"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D16" s="2" t="s">
         <v>7</v>
       </c>
@@ -1045,7 +1054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D17" s="2"/>
       <c r="E17" s="1" t="s">
         <v>9</v>
@@ -1054,12 +1063,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D18" s="2"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D19" s="2" t="s">
         <v>10</v>
       </c>
@@ -1070,7 +1079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D20" s="2"/>
       <c r="E20" s="1" t="s">
         <v>11</v>
@@ -1079,7 +1088,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D21" s="2"/>
       <c r="E21" s="1" t="s">
         <v>12</v>
@@ -1088,12 +1097,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D22" s="2"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D23" s="2" t="s">
         <v>13</v>
       </c>
@@ -1104,7 +1113,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D24" s="2" t="s">
         <v>15</v>
       </c>
@@ -1115,7 +1124,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D25" s="2" t="s">
         <v>17</v>
       </c>
@@ -1124,7 +1133,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D26" s="2" t="s">
         <v>18</v>
       </c>
@@ -1133,7 +1142,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D27" s="2" t="s">
         <v>19</v>
       </c>
@@ -1142,7 +1151,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="28" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D28" s="2" t="s">
         <v>20</v>
       </c>
@@ -1151,7 +1160,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D29" s="2" t="s">
         <v>21</v>
       </c>
@@ -1160,7 +1169,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="30" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D30" s="2" t="s">
         <v>22</v>
       </c>
@@ -1169,7 +1178,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D31" s="2" t="s">
         <v>23</v>
       </c>
@@ -1178,7 +1187,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="32" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D32" s="2" t="s">
         <v>24</v>
       </c>
@@ -1187,7 +1196,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D33" s="2" t="s">
         <v>25</v>
       </c>
@@ -1198,7 +1207,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D34" s="2" t="s">
         <v>27</v>
       </c>
@@ -1209,7 +1218,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D35" s="2" t="s">
         <v>29</v>
       </c>
@@ -1220,77 +1229,97 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D36" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D37" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F37" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D39" s="2" t="s">
+    <row r="40" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D40" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F39" s="1">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="40" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D40" s="2"/>
       <c r="E40" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="41" spans="4:6" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+      <c r="F40" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D41" s="2"/>
       <c r="E41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F41" s="1">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="42" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D42" s="2"/>
+      <c r="E42" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D43" s="2"/>
+      <c r="E43" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F41" s="1" t="s">
+    </row>
+    <row r="44" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D44" s="2"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D45" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="42" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D42" s="2"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D43" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E43" s="1" t="s">
+      <c r="F45" s="1">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="46" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D46" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F43" s="1">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="44" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D44" s="2" t="s">
+      <c r="E46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F44" s="1">
+      <c r="F46" s="1">
         <v>380</v>
       </c>
     </row>
-    <row r="45" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
+    <row r="47" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1301,123 +1330,123 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18188826-6E2D-46F8-A787-946A93237DD8}">
   <dimension ref="E7:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="15.7265625" customWidth="1"/>
-    <col min="6" max="6" width="27.1796875" customWidth="1"/>
-    <col min="7" max="7" width="27.81640625" customWidth="1"/>
-    <col min="8" max="8" width="20.453125" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" customWidth="1"/>
+    <col min="6" max="6" width="27.21875" customWidth="1"/>
+    <col min="7" max="7" width="27.77734375" customWidth="1"/>
+    <col min="8" max="8" width="20.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E7" s="3" t="s">
+    <row r="7" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E7" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" t="s">
         <v>111</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E8" s="4"/>
+      <c r="F8" t="s">
         <v>112</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G8" t="s">
         <v>128</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E9" s="4"/>
+      <c r="F9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E10" s="4"/>
+      <c r="F10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" t="s">
+        <v>128</v>
+      </c>
+      <c r="H10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E11" s="4"/>
+      <c r="F11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E12" s="4"/>
+      <c r="F12" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" t="s">
+        <v>128</v>
+      </c>
+      <c r="H12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F14" t="s">
+        <v>120</v>
+      </c>
+      <c r="G14" t="s">
+        <v>119</v>
+      </c>
+      <c r="H14" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E8" s="3"/>
-      <c r="F8" t="s">
-        <v>113</v>
-      </c>
-      <c r="G8" t="s">
-        <v>129</v>
-      </c>
-      <c r="H8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E9" s="3"/>
-      <c r="F9" t="s">
-        <v>114</v>
-      </c>
-      <c r="G9" t="s">
-        <v>129</v>
-      </c>
-      <c r="H9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E10" s="3"/>
-      <c r="F10" t="s">
-        <v>115</v>
-      </c>
-      <c r="G10" t="s">
-        <v>129</v>
-      </c>
-      <c r="H10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E11" s="3"/>
-      <c r="F11" t="s">
-        <v>116</v>
-      </c>
-      <c r="G11" t="s">
-        <v>129</v>
-      </c>
-      <c r="H11" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="12" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E12" s="3"/>
-      <c r="F12" t="s">
-        <v>117</v>
-      </c>
-      <c r="G12" t="s">
-        <v>129</v>
-      </c>
-      <c r="H12" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="14" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="F14" t="s">
+    <row r="15" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F15" t="s">
         <v>121</v>
       </c>
-      <c r="G14" t="s">
-        <v>120</v>
-      </c>
-      <c r="H14" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="15" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>122</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>123</v>
       </c>
-      <c r="H15" t="s">
+    </row>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.3">
+      <c r="F17" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>125</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>126</v>
-      </c>
-      <c r="H17" t="s">
-        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1434,206 +1463,206 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08DF47FD-C3D9-4389-858D-B22F9241D6AC}">
   <dimension ref="D6:G27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="26.7265625" customWidth="1"/>
-    <col min="5" max="5" width="16.7265625" customWidth="1"/>
-    <col min="6" max="6" width="24.7265625" customWidth="1"/>
+    <col min="4" max="4" width="26.77734375" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" customWidth="1"/>
+    <col min="6" max="6" width="24.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" t="s">
         <v>130</v>
       </c>
-      <c r="E6" t="s">
+    </row>
+    <row r="7" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
         <v>80</v>
       </c>
-      <c r="F6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" t="s">
-        <v>77</v>
-      </c>
-      <c r="F8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" t="s">
-        <v>78</v>
-      </c>
-      <c r="F9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" t="s">
-        <v>80</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="E13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="13" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D13" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" t="s">
-        <v>82</v>
-      </c>
-      <c r="F13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D14" t="s">
-        <v>83</v>
-      </c>
-      <c r="E14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D15" t="s">
-        <v>101</v>
-      </c>
-      <c r="E15" t="s">
-        <v>85</v>
-      </c>
-      <c r="F15" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="4:6" x14ac:dyDescent="0.35">
-      <c r="D16" t="s">
-        <v>100</v>
-      </c>
-      <c r="E16" t="s">
-        <v>85</v>
-      </c>
-      <c r="F16" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="D17" t="s">
-        <v>98</v>
-      </c>
-      <c r="E17" t="s">
-        <v>86</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="G21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="D18" t="s">
-        <v>99</v>
-      </c>
-      <c r="E18" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="D19" t="s">
-        <v>87</v>
-      </c>
-      <c r="E19" t="s">
-        <v>88</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="E23" s="5" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="D20" t="s">
-        <v>89</v>
-      </c>
-      <c r="E20" t="s">
-        <v>88</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="F23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="E24" s="5"/>
+    </row>
+    <row r="26" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="D21" t="s">
-        <v>102</v>
-      </c>
-      <c r="E21" t="s">
-        <v>103</v>
-      </c>
-      <c r="F21" t="s">
-        <v>110</v>
-      </c>
-      <c r="G21" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="D23" t="s">
-        <v>95</v>
-      </c>
-      <c r="E23" s="4" t="s">
+      <c r="F26" t="s">
         <v>91</v>
       </c>
-      <c r="F23" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="E24" s="4"/>
-    </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="D26" t="s">
-        <v>96</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F26" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="27" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="E27" s="4"/>
+    </row>
+    <row r="27" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="E27" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1647,199 +1676,256 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B00991DA-B335-496E-B732-DEB159B120EA}">
-  <dimension ref="E7:H27"/>
+  <dimension ref="E7:H28"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="27.26953125" customWidth="1"/>
-    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="5" max="5" width="27.21875" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H7">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
         <v>47</v>
       </c>
-      <c r="F7">
+      <c r="G8" t="s">
+        <v>147</v>
+      </c>
+      <c r="H8">
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E8" t="s">
+    <row r="9" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
         <v>48</v>
       </c>
-      <c r="F8">
+      <c r="F9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" t="s">
+        <v>147</v>
+      </c>
+      <c r="H9">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" t="s">
+        <v>147</v>
+      </c>
+      <c r="H10">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" t="s">
+        <v>147</v>
+      </c>
+      <c r="H11">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" t="s">
+        <v>147</v>
+      </c>
+      <c r="H12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" t="s">
+        <v>147</v>
+      </c>
+      <c r="H13">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="9" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9">
+      <c r="G15" t="s">
+        <v>147</v>
+      </c>
+      <c r="H15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F16" t="s">
         <v>70</v>
       </c>
-      <c r="G9" t="s">
+    </row>
+    <row r="18" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" t="s">
+        <v>147</v>
+      </c>
+      <c r="H18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" t="s">
+        <v>147</v>
+      </c>
+      <c r="H19">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="10" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10">
-        <v>110</v>
-      </c>
-      <c r="G10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11">
-        <v>32</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="G20" t="s">
+        <v>147</v>
+      </c>
+      <c r="H20">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" t="s">
+        <v>147</v>
+      </c>
+      <c r="H21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" t="s">
+        <v>147</v>
+      </c>
+      <c r="H22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" t="s">
+        <v>147</v>
+      </c>
+      <c r="H24">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" t="s">
+        <v>63</v>
+      </c>
+      <c r="G25" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" t="s">
+        <v>65</v>
+      </c>
+      <c r="G26" t="s">
+        <v>147</v>
+      </c>
+      <c r="H26">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="12" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E13" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13">
-        <v>38</v>
-      </c>
-      <c r="G13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E15" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15">
-        <v>35</v>
-      </c>
-      <c r="G15" t="s">
-        <v>71</v>
-      </c>
-      <c r="H15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E17" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17">
-        <v>40</v>
-      </c>
-      <c r="G17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E18" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18">
-        <v>73</v>
-      </c>
-      <c r="G18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E19" t="s">
-        <v>58</v>
-      </c>
-      <c r="F19">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E21" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E23" t="s">
-        <v>61</v>
-      </c>
-      <c r="F23">
-        <v>55</v>
-      </c>
-      <c r="G23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E24" t="s">
-        <v>63</v>
-      </c>
-      <c r="F24">
-        <v>9</v>
-      </c>
-      <c r="G24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E25" t="s">
-        <v>65</v>
-      </c>
-      <c r="F25">
-        <v>40</v>
-      </c>
-      <c r="G25" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E26" t="s">
+      <c r="F27" t="s">
         <v>67</v>
       </c>
-      <c r="F26">
+      <c r="G27" t="s">
+        <v>147</v>
+      </c>
+      <c r="H27">
         <v>18</v>
       </c>
-      <c r="G26" t="s">
+    </row>
+    <row r="28" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E28" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="27" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E27" t="s">
+      <c r="F28" t="s">
         <v>69</v>
       </c>
-      <c r="F27">
+      <c r="G28" t="s">
+        <v>147</v>
+      </c>
+      <c r="H28">
         <v>25</v>
-      </c>
-      <c r="G27" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1851,101 +1937,101 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5CBC578-FEB1-46B5-91E7-DC15C1429E8F}">
   <dimension ref="E5:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="33.453125" customWidth="1"/>
-    <col min="7" max="7" width="15.1796875" customWidth="1"/>
+    <col min="5" max="5" width="33.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>141</v>
+      </c>
+      <c r="G8" t="s">
+        <v>142</v>
+      </c>
+      <c r="H8" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G9" t="s">
+        <v>142</v>
+      </c>
+      <c r="H9" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>134</v>
+      </c>
+      <c r="G10" t="s">
+        <v>142</v>
+      </c>
+      <c r="H10" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="8" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E8" t="s">
+      <c r="F11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G11" t="s">
         <v>142</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H11" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>135</v>
+      </c>
+      <c r="F12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G12" t="s">
+        <v>142</v>
+      </c>
+      <c r="H12" s="3">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="13" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>137</v>
+      </c>
+      <c r="H13" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>138</v>
+      </c>
+      <c r="F14" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" t="s">
         <v>143</v>
       </c>
-      <c r="H8" s="5">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E9" t="s">
-        <v>134</v>
-      </c>
-      <c r="G9" t="s">
-        <v>143</v>
-      </c>
-      <c r="H9" s="5">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E10" t="s">
-        <v>135</v>
-      </c>
-      <c r="G10" t="s">
-        <v>143</v>
-      </c>
-      <c r="H10" s="5">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E11" t="s">
-        <v>133</v>
-      </c>
-      <c r="F11" t="s">
-        <v>141</v>
-      </c>
-      <c r="G11" t="s">
-        <v>143</v>
-      </c>
-      <c r="H11" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E12" t="s">
-        <v>136</v>
-      </c>
-      <c r="F12" t="s">
-        <v>137</v>
-      </c>
-      <c r="G12" t="s">
-        <v>143</v>
-      </c>
-      <c r="H12" s="5">
-        <v>33.5</v>
-      </c>
-    </row>
-    <row r="13" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E13" t="s">
-        <v>138</v>
-      </c>
-      <c r="H13" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E14" t="s">
-        <v>139</v>
-      </c>
-      <c r="F14" t="s">
-        <v>140</v>
-      </c>
-      <c r="G14" t="s">
-        <v>144</v>
-      </c>
-      <c r="H14" s="5">
+      <c r="H14" s="3">
         <v>20</v>
       </c>
     </row>

--- a/Listado de precios.xlsx
+++ b/Listado de precios.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ubicacion C a D\Documentos\Segundo-Semestre-24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85063774-5716-4BD7-A904-8415BB3903B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB78A5E-7520-4F14-9F9C-95B37A6D8E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{A1D2865A-F593-48D8-AD5B-9FCAED981477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{A1D2865A-F593-48D8-AD5B-9FCAED981477}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja4" sheetId="4" r:id="rId2"/>
+    <sheet name="Hoja6" sheetId="6" r:id="rId2"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId3"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId4"/>
     <sheet name="Hoja5" sheetId="5" r:id="rId5"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="193">
   <si>
     <t xml:space="preserve">Ajonjoli </t>
   </si>
@@ -169,9 +169,6 @@
     <t>Corona lata 12oz</t>
   </si>
   <si>
-    <t xml:space="preserve">Caja de orange </t>
-  </si>
-  <si>
     <t xml:space="preserve">caja coca botella </t>
   </si>
   <si>
@@ -199,12 +196,6 @@
     <t xml:space="preserve">Jugo de la granja </t>
   </si>
   <si>
-    <t>7.50 cada uno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V8 del frutal </t>
-  </si>
-  <si>
     <t xml:space="preserve">tortrix doc </t>
   </si>
   <si>
@@ -247,9 +238,6 @@
     <t xml:space="preserve">a 4 cada uno </t>
   </si>
   <si>
-    <t xml:space="preserve"> a 6 cada uno</t>
-  </si>
-  <si>
     <t>a 0.5 unidad</t>
   </si>
   <si>
@@ -473,13 +461,160 @@
   </si>
   <si>
     <t>por mayor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adrenalina pequeña </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 cada uno </t>
+  </si>
+  <si>
+    <t>Adrenalina 16 oz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 cada </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pepsi Lata </t>
+  </si>
+  <si>
+    <t>5 cada uno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Por mayor </t>
+  </si>
+  <si>
+    <t>4 cada uno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.50 cada uno </t>
+  </si>
+  <si>
+    <t xml:space="preserve">orange  botella </t>
+  </si>
+  <si>
+    <t>Frasco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolsa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Litro de Coca </t>
+  </si>
+  <si>
+    <t>8 cada uno</t>
+  </si>
+  <si>
+    <t>6 cada uno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">por mayor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fresca </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 cada uno </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coca Desechable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Potensol </t>
+  </si>
+  <si>
+    <t>Jabon Potensol</t>
+  </si>
+  <si>
+    <t>por mayor de 20 unidades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lapicero Bic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 cada uno </t>
+  </si>
+  <si>
+    <t>Por mayor de 12 unidades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Papel nube blanca </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 paquete </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Por mayor de 10 unidades </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unidad nube blanca </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Por mayor de 10 paquetes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayonesa pequeña </t>
+  </si>
+  <si>
+    <t xml:space="preserve">42 las 12 unidades </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.50 cada uno </t>
+  </si>
+  <si>
+    <t>48 las 12 unidades</t>
+  </si>
+  <si>
+    <t>Salsa Dulce Mediana (8oz)</t>
+  </si>
+  <si>
+    <t>3 cada uno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26 las 12 unidades </t>
+  </si>
+  <si>
+    <t>Salsa Dulce Pequeña(4oz)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jugo del Frutal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 cada uno </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Super Glue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.50 cada uno </t>
+  </si>
+  <si>
+    <t xml:space="preserve">por mayor de 12 unidades </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azucar libra </t>
+  </si>
+  <si>
+    <t xml:space="preserve">por mayor de 30 unidades </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azucar 5 libras </t>
+  </si>
+  <si>
+    <t xml:space="preserve">25 cada uno </t>
+  </si>
+  <si>
+    <t xml:space="preserve">por mayor de 6 unidades </t>
+  </si>
+  <si>
+    <t>7 cada uno</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -495,12 +630,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -510,7 +639,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -533,11 +662,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -545,10 +720,52 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -571,23 +788,204 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>37353</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>37353</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>516397</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>6575</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>993588</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>239059</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18CAB096-8908-41F3-8F30-BFF228ADD995}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6C17BE1-23E5-1C03-76AE-F40298F9CA44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="37353" y="37353"/>
+          <a:ext cx="956235" cy="799353"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>63720</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>29883</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1001039</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>276412</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AAE8EF8-3363-A9A9-8941-351F52F4633C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="63720" y="1113118"/>
+          <a:ext cx="937319" cy="844176"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>156883</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>63542</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>855505</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>799353</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F53F1E8-39FF-16FC-8F23-909493046A72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="156883" y="4060307"/>
+          <a:ext cx="698622" cy="735811"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>67236</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>74706</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>933824</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>769471</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D6CEB4E-5CEB-C59A-5605-D6F23FA8E40D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="67236" y="5154706"/>
+          <a:ext cx="866588" cy="694765"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>313764</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>127001</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>755456</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>843283</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51025532-4300-46D8-9B13-B727A7989C0E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -603,8 +1001,272 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="5817511" y="1897739"/>
-          <a:ext cx="4388075" cy="7831597"/>
+          <a:off x="11076058" y="1272825"/>
+          <a:ext cx="4302164" cy="8211103"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>365382</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>45505</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>778565</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>840034</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BB91623-9E46-436E-A45C-11D05FE2B919}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="365382" y="1321027"/>
+          <a:ext cx="413183" cy="794529"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>369957</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>66262</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>784087</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>881374</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F008DCB-DDD1-B804-242E-373216B8100D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="369957" y="2236305"/>
+          <a:ext cx="414130" cy="815112"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104588</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>134472</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>843076</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8A31B9E-6439-2379-83A8-BFFF4B68E873}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="104588" y="134472"/>
+          <a:ext cx="738488" cy="866588"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>209177</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>44822</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>792831</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>821765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{146960AD-94B5-BC99-C5D4-D88FECA510DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="209177" y="4938057"/>
+          <a:ext cx="583654" cy="776943"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>194237</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>112057</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>664883</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>834358</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D14862C-A6BB-5B07-095F-7D5E77E53C31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="194237" y="5901763"/>
+          <a:ext cx="470646" cy="722301"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>268940</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>29882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>679823</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>821765</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagen 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E096A88C-95B4-0190-0C56-CF6F503BD390}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="268940" y="6716058"/>
+          <a:ext cx="410883" cy="791883"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -616,7 +1278,760 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>482600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2D25C4D-00C3-D9EB-8F01-074B71256E93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2419351" y="5416551"/>
+          <a:ext cx="438149" cy="933449"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>63502</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>690130</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>939800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2A480FF-0E91-5662-E2A2-A0750724B0FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2349502" y="6597650"/>
+          <a:ext cx="626628" cy="920750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>965201</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9816251C-E1B5-4AEF-77F3-20A1A720B2B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2419350" y="1181101"/>
+          <a:ext cx="425450" cy="889000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>285752</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>88901</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>527050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>812801</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC323546-0907-0460-D1EF-82191476009F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="285752" y="7670801"/>
+          <a:ext cx="241298" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>46181</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>80819</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>741392</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18784693-5CB4-47F4-8AB0-255D96244BFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="46181" y="8578274"/>
+          <a:ext cx="695211" cy="819726"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>87423</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>865465</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76FAAA87-08E6-35CF-8C20-8D44DFCFCE67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="254000" y="9485423"/>
+          <a:ext cx="254000" cy="778042"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>223183</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>71062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>556558</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>806824</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagen 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC74F4FF-ED32-9C97-428C-9F95B950CAC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="223183" y="10410356"/>
+          <a:ext cx="333375" cy="735762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>145142</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>90714</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>546687</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>825499</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagen 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3E7E2F7-6023-6623-FC56-4145429747DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="145142" y="11194143"/>
+          <a:ext cx="401545" cy="734785"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>752929</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>151445</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>58430</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Imagen 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD33B5C0-6D97-427C-B8EF-B46F7925C251}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7102929" y="2530929"/>
+          <a:ext cx="8651373" cy="2008787"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>81644</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>689429</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>807357</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Imagen 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F73A7277-9E9D-EA25-0F8B-09FBF0CCD39E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="81644" y="12128500"/>
+          <a:ext cx="607785" cy="680357"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>163285</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>509410</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>825499</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Imagen 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46053C48-817E-0BBE-E1CD-0FF542F0B175}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="163285" y="12953999"/>
+          <a:ext cx="346125" cy="771071"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>81644</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>731267</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>798286</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Imagen 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABD5CB6F-5420-4DCD-1BC0-00279BB7BE2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="13879287"/>
+          <a:ext cx="731267" cy="716642"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>18143</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>664706</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>716643</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Imagen 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84322993-562D-D277-161C-05F3C3A939F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18143" y="14722928"/>
+          <a:ext cx="646563" cy="689429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>72571</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>780142</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Imagen 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EEA991F-56BB-B003-8CAF-3F7D766738B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="127000" y="5451928"/>
+          <a:ext cx="381000" cy="707571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>148016</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>767305</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>743857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Imagen 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59C9D45D-541C-F64C-32F2-485B1711C4A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2833159"/>
+          <a:ext cx="767305" cy="595841"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57728</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>207820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>741687</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>623455</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Imagen 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94FB47A4-32BF-FA32-D1D0-AD889CF7423E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="57728" y="20920365"/>
+          <a:ext cx="683959" cy="415635"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>46181</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>115454</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>685622</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>669636</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Imagen 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68F0AD56-2728-AE9E-D8DC-E3327E7C3474}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="46181" y="21728545"/>
+          <a:ext cx="639441" cy="554182"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -962,500 +2377,570 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D1175F8-2C7A-4824-88BB-5721D718A6F7}">
-  <dimension ref="D8:F47"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView view="pageLayout" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="C10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="24.33203125" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" customWidth="1"/>
+    <col min="1" max="1" width="14.453125" customWidth="1"/>
+    <col min="2" max="2" width="24.36328125" customWidth="1"/>
+    <col min="3" max="3" width="19.1796875" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D8" s="2" t="s">
+    <row r="1" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="12"/>
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="1">
+      <c r="D1" s="5">
         <v>3.5</v>
       </c>
     </row>
-    <row r="9" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D9" s="2"/>
-      <c r="E9" s="1" t="s">
+    <row r="2" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="12"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="1">
+      <c r="D2" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D10" s="2"/>
-      <c r="E10" s="1" t="s">
+    <row r="3" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="12"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="1">
+      <c r="D3" s="5">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D11" s="2"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D12" s="2" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B4" s="2"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="C5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="1">
+      <c r="D5" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D13" s="2"/>
-      <c r="E13" s="1" t="s">
+    <row r="6" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="12"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="1">
+      <c r="D6" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D14" s="2"/>
-      <c r="E14" s="1" t="s">
+    <row r="7" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="12"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="1">
+      <c r="D7" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D15" s="2"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D16" s="2" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B8" s="2"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="1">
+      <c r="D9" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D17" s="2"/>
-      <c r="E17" s="1" t="s">
+    <row r="10" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="12"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="1">
+      <c r="D10" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D18" s="2"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D19" s="2" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B11" s="2"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F19" s="1">
+      <c r="D12" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D20" s="2"/>
-      <c r="E20" s="1" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="12"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="1">
+      <c r="D13" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D21" s="2"/>
-      <c r="E21" s="1" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="12"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="1">
+      <c r="D14" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D22" s="2"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D23" s="2" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B15" s="2"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" ht="70.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="C16" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="1">
+      <c r="D16" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D24" s="2" t="s">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F24" s="1">
+      <c r="D17" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D25" s="2" t="s">
+    <row r="18" spans="2:4" ht="70.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1">
+      <c r="C18" s="1"/>
+      <c r="D18" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D26" s="2" t="s">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1">
+      <c r="C19" s="1"/>
+      <c r="D19" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D27" s="2" t="s">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1">
         <v>3.5</v>
       </c>
     </row>
-    <row r="28" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D28" s="2" t="s">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1">
+      <c r="C21" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D21" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D29" s="2" t="s">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1">
+      <c r="C22" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D22" s="1">
         <v>5.5</v>
       </c>
     </row>
-    <row r="30" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D30" s="2" t="s">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D31" s="2" t="s">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1">
+      <c r="C24" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D24" s="1">
         <v>2.5</v>
       </c>
     </row>
-    <row r="32" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D32" s="2" t="s">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1">
+      <c r="C25" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D25" s="1">
         <v>3.5</v>
       </c>
     </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D33" s="2" t="s">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F33" s="1">
+      <c r="D26" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D34" s="2" t="s">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F34" s="1">
+      <c r="D27" s="1">
         <v>1.25</v>
       </c>
     </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D35" s="2" t="s">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B28" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F35" s="1">
+      <c r="D28" s="1">
         <v>1.75</v>
       </c>
     </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D36" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E36" s="1" t="s">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B29" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F36" s="1">
+      <c r="D29" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D37" s="2" t="s">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B30" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F37" s="1">
+      <c r="D30" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D40" s="2" t="s">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B33" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F40" s="1">
+      <c r="C33" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D33" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D41" s="2"/>
-      <c r="E41" s="1" t="s">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B34" s="2"/>
+      <c r="C34" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F41" s="1">
+      <c r="D34" s="1">
         <v>225</v>
       </c>
     </row>
-    <row r="42" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D42" s="2"/>
-      <c r="E42" s="1" t="s">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B35" s="2"/>
+      <c r="C35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D43" s="2"/>
-      <c r="E43" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F43" s="1" t="s">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B36" s="2"/>
+      <c r="C36" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D44" s="2"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D45" s="2" t="s">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B37" s="2"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B38" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F45" s="1">
+      <c r="D38" s="1">
         <v>190</v>
       </c>
     </row>
-    <row r="46" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D46" s="2" t="s">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B39" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F46" s="1">
+      <c r="D39" s="1">
         <v>380</v>
       </c>
     </row>
-    <row r="47" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="A9:A10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18188826-6E2D-46F8-A787-946A93237DD8}">
-  <dimension ref="E7:H17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB2D21B5-ED7D-4E95-A1EF-336C938F5CFA}">
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="15.77734375" customWidth="1"/>
-    <col min="6" max="6" width="27.21875" customWidth="1"/>
-    <col min="7" max="7" width="27.77734375" customWidth="1"/>
-    <col min="8" max="8" width="20.44140625" customWidth="1"/>
+    <col min="1" max="1" width="12.90625" customWidth="1"/>
+    <col min="2" max="2" width="23.36328125" customWidth="1"/>
+    <col min="3" max="3" width="25.26953125" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E7" s="4" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="16"/>
+      <c r="B2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="16"/>
+      <c r="B3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="16"/>
+      <c r="B4" t="s">
         <v>110</v>
       </c>
-      <c r="F7" t="s">
+      <c r="C4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="16"/>
+      <c r="B5" t="s">
         <v>111</v>
       </c>
-      <c r="G7" t="s">
-        <v>127</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="C5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="16"/>
+      <c r="B6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="70.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="70.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="8" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E8" s="4"/>
-      <c r="F8" t="s">
-        <v>112</v>
-      </c>
-      <c r="G8" t="s">
-        <v>128</v>
-      </c>
-      <c r="H8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E9" s="4"/>
-      <c r="F9" t="s">
-        <v>113</v>
-      </c>
-      <c r="G9" t="s">
-        <v>128</v>
-      </c>
-      <c r="H9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="10" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E10" s="4"/>
-      <c r="F10" t="s">
-        <v>114</v>
-      </c>
-      <c r="G10" t="s">
-        <v>128</v>
-      </c>
-      <c r="H10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="11" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E11" s="4"/>
-      <c r="F11" t="s">
-        <v>115</v>
-      </c>
-      <c r="G11" t="s">
-        <v>128</v>
-      </c>
-      <c r="H11" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E12" s="4"/>
-      <c r="F12" t="s">
-        <v>116</v>
-      </c>
-      <c r="G12" t="s">
-        <v>128</v>
-      </c>
-      <c r="H12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="14" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="F14" t="s">
+      <c r="C9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="70.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:4" ht="70.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
         <v>120</v>
       </c>
-      <c r="G14" t="s">
-        <v>119</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="C11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="70.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="15" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="F15" t="s">
-        <v>121</v>
-      </c>
-      <c r="G15" t="s">
-        <v>122</v>
-      </c>
-      <c r="H15" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F17" t="s">
-        <v>124</v>
-      </c>
-      <c r="G17" t="s">
-        <v>125</v>
-      </c>
-      <c r="H17" t="s">
-        <v>126</v>
-      </c>
-    </row>
+      <c r="D12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="70.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>181</v>
+      </c>
+      <c r="C13" t="s">
+        <v>179</v>
+      </c>
+      <c r="D13" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="70.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14" t="s">
+        <v>176</v>
+      </c>
+      <c r="D14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="70.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:4" ht="70.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="17" ht="70.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="70.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E7:E12"/>
+    <mergeCell ref="A1:A6"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1463,206 +2948,206 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08DF47FD-C3D9-4389-858D-B22F9241D6AC}">
   <dimension ref="D6:G27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="26.77734375" customWidth="1"/>
-    <col min="5" max="5" width="16.77734375" customWidth="1"/>
-    <col min="6" max="6" width="24.77734375" customWidth="1"/>
+    <col min="4" max="4" width="26.81640625" customWidth="1"/>
+    <col min="5" max="5" width="16.81640625" customWidth="1"/>
+    <col min="6" max="6" width="24.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="7" spans="4:6" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D7" t="s">
         <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="4:6" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D8" t="s">
         <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="4:6" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D9" t="s">
         <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="4:6" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D10" t="s">
         <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="4:6" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D11" t="s">
         <v>45</v>
       </c>
       <c r="E11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" t="s">
         <v>79</v>
       </c>
-      <c r="F11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D13" t="s">
+    </row>
+    <row r="15" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" t="s">
         <v>80</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" t="s">
         <v>81</v>
       </c>
-      <c r="F13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D14" t="s">
+      <c r="F17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D19" t="s">
         <v>82</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E19" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="15" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D15" t="s">
-        <v>100</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="F19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D20" t="s">
         <v>84</v>
       </c>
-      <c r="F15" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="4:6" x14ac:dyDescent="0.3">
-      <c r="D16" t="s">
+      <c r="E20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D21" t="s">
+        <v>97</v>
+      </c>
+      <c r="E21" t="s">
+        <v>98</v>
+      </c>
+      <c r="F21" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21" t="s">
         <v>99</v>
       </c>
-      <c r="E16" t="s">
-        <v>84</v>
-      </c>
-      <c r="F16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D17" t="s">
-        <v>97</v>
-      </c>
-      <c r="E17" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D18" t="s">
-        <v>98</v>
-      </c>
-      <c r="E18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D19" t="s">
+    </row>
+    <row r="23" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F23" t="s">
         <v>87</v>
       </c>
-      <c r="F19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D20" t="s">
-        <v>88</v>
-      </c>
-      <c r="E20" t="s">
+    </row>
+    <row r="24" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="E24" s="17"/>
+    </row>
+    <row r="26" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="F26" t="s">
         <v>87</v>
       </c>
-      <c r="F20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D21" t="s">
-        <v>101</v>
-      </c>
-      <c r="E21" t="s">
-        <v>102</v>
-      </c>
-      <c r="F21" t="s">
-        <v>109</v>
-      </c>
-      <c r="G21" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D23" t="s">
-        <v>94</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F23" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="E24" s="5"/>
-    </row>
-    <row r="26" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D26" t="s">
-        <v>95</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F26" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="E27" s="5"/>
+    </row>
+    <row r="27" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="E27" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1676,260 +3161,464 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B00991DA-B335-496E-B732-DEB159B120EA}">
-  <dimension ref="E7:H28"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" showRuler="0" view="pageLayout" topLeftCell="A34" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="27.21875" customWidth="1"/>
-    <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="8" max="8" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27.1796875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="19" style="9" customWidth="1"/>
+    <col min="4" max="4" width="10.90625" style="9"/>
+    <col min="5" max="5" width="10.54296875" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E7" t="s">
+    <row r="1" spans="2:7" ht="83" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" s="10">
+        <v>73</v>
+      </c>
+      <c r="G1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" s="10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B5" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" s="10">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B6" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" s="10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B7" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E7" s="10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B9" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E9" s="10">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C10" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="70.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="E11" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="70.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E12" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="70.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E13" s="10">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="70.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E14" s="10">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="70.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E15" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="70.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E16" s="10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="70.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B18" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E18" s="10">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B19" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E19" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B20" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E20" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B21" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E21" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B22" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E22" s="10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="18"/>
+      <c r="B24" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E24" s="10">
+        <v>204.96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="18"/>
+      <c r="B25" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E25" s="10">
+        <v>280.04000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="83" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E27" s="11">
+        <v>102.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="70.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="G7" t="s">
-        <v>147</v>
-      </c>
-      <c r="H7">
+      <c r="C29" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E29" s="10">
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E8" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" t="s">
-        <v>147</v>
-      </c>
-      <c r="H8">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E9" t="s">
+    <row r="30" spans="1:5" ht="70.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" t="s">
-        <v>147</v>
-      </c>
-      <c r="H9">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" t="s">
-        <v>72</v>
-      </c>
-      <c r="G10" t="s">
-        <v>147</v>
-      </c>
-      <c r="H10">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" t="s">
-        <v>147</v>
-      </c>
-      <c r="H11">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" t="s">
-        <v>147</v>
-      </c>
-      <c r="H12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" t="s">
-        <v>147</v>
-      </c>
-      <c r="H13">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" t="s">
-        <v>73</v>
-      </c>
-      <c r="G15" t="s">
-        <v>147</v>
-      </c>
-      <c r="H15">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="F16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E18" t="s">
-        <v>54</v>
-      </c>
-      <c r="F18" t="s">
-        <v>74</v>
-      </c>
-      <c r="G18" t="s">
-        <v>147</v>
-      </c>
-      <c r="H18">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" t="s">
-        <v>147</v>
-      </c>
-      <c r="H19">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E20" t="s">
-        <v>57</v>
-      </c>
-      <c r="G20" t="s">
-        <v>147</v>
-      </c>
-      <c r="H20">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E21" t="s">
-        <v>58</v>
-      </c>
-      <c r="G21" t="s">
-        <v>147</v>
-      </c>
-      <c r="H21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E22" t="s">
-        <v>59</v>
-      </c>
-      <c r="G22" t="s">
-        <v>147</v>
-      </c>
-      <c r="H22">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E24" t="s">
-        <v>60</v>
-      </c>
-      <c r="F24" t="s">
-        <v>61</v>
-      </c>
-      <c r="G24" t="s">
-        <v>147</v>
-      </c>
-      <c r="H24">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E25" t="s">
-        <v>62</v>
-      </c>
-      <c r="F25" t="s">
-        <v>63</v>
-      </c>
-      <c r="G25" t="s">
-        <v>147</v>
-      </c>
-      <c r="H25">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E26" t="s">
-        <v>64</v>
-      </c>
-      <c r="F26" t="s">
-        <v>65</v>
-      </c>
-      <c r="G26" t="s">
-        <v>147</v>
-      </c>
-      <c r="H26">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E27" t="s">
-        <v>66</v>
-      </c>
-      <c r="F27" t="s">
-        <v>67</v>
-      </c>
-      <c r="G27" t="s">
-        <v>147</v>
-      </c>
-      <c r="H27">
+      <c r="C30" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E30" s="10">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="70.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E31" s="10">
+        <v>81.599999999999994</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="70.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E32" s="10">
+        <v>62.85</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="70.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E33" s="10">
+        <v>73.150000000000006</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="70.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="E34" s="10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="70.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="E35" s="10">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E28" t="s">
+    <row r="36" spans="2:5" ht="70.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="E36" s="10">
         <v>68</v>
       </c>
-      <c r="F28" t="s">
-        <v>69</v>
-      </c>
-      <c r="G28" t="s">
-        <v>147</v>
-      </c>
-      <c r="H28">
-        <v>25</v>
-      </c>
-    </row>
+    </row>
+    <row r="37" spans="2:5" ht="70.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="E37" s="10">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" ht="70.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="E38" s="10">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" ht="70.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="E39" s="10">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" ht="70.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A24:A25"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1937,99 +3626,99 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5CBC578-FEB1-46B5-91E7-DC15C1429E8F}">
   <dimension ref="E5:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="33.44140625" customWidth="1"/>
-    <col min="7" max="7" width="15.21875" customWidth="1"/>
+    <col min="5" max="5" width="33.453125" customWidth="1"/>
+    <col min="7" max="7" width="15.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="5:8" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G8" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H8" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E9" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H9" s="3">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E10" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G10" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H10" s="3">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E11" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F11" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G11" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H11" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E12" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F12" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G12" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H12" s="3">
         <v>33.5</v>
       </c>
     </row>
-    <row r="13" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E13" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H13" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="5:8" x14ac:dyDescent="0.35">
       <c r="E14" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F14" t="s">
+        <v>135</v>
+      </c>
+      <c r="G14" t="s">
         <v>139</v>
-      </c>
-      <c r="G14" t="s">
-        <v>143</v>
       </c>
       <c r="H14" s="3">
         <v>20</v>

--- a/Listado de precios.xlsx
+++ b/Listado de precios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ubicacion C a D\Documentos\Segundo-Semestre-24\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB78A5E-7520-4F14-9F9C-95B37A6D8E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D2CA9D-4E0F-4FBA-A5C8-2C3B619F96AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{A1D2865A-F593-48D8-AD5B-9FCAED981477}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{A1D2865A-F593-48D8-AD5B-9FCAED981477}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -743,6 +743,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -763,9 +766,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2379,7 +2379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D1175F8-2C7A-4824-88BB-5721D718A6F7}">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="C10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
@@ -2392,8 +2392,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12"/>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="13"/>
+      <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
@@ -2404,8 +2404,8 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12"/>
-      <c r="B2" s="14"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
@@ -2414,8 +2414,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="12"/>
-      <c r="B3" s="15"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
@@ -2429,8 +2429,8 @@
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -2441,8 +2441,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="12"/>
-      <c r="B6" s="14"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="6" t="s">
         <v>6</v>
       </c>
@@ -2451,8 +2451,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="12"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="6" t="s">
         <v>2</v>
       </c>
@@ -2466,8 +2466,8 @@
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -2478,8 +2478,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="35.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="12"/>
-      <c r="B10" s="15"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="1" t="s">
         <v>9</v>
       </c>
@@ -2493,8 +2493,8 @@
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13" t="s">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -2505,8 +2505,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="12"/>
-      <c r="B13" s="14"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="1" t="s">
         <v>11</v>
       </c>
@@ -2515,8 +2515,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="12"/>
-      <c r="B14" s="15"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="16"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
@@ -2777,7 +2777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB2D21B5-ED7D-4E95-A1EF-336C938F5CFA}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A7" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -2790,7 +2790,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>106</v>
       </c>
       <c r="B1" t="s">
@@ -2804,7 +2804,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="16"/>
+      <c r="A2" s="17"/>
       <c r="B2" t="s">
         <v>108</v>
       </c>
@@ -2816,7 +2816,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="16"/>
+      <c r="A3" s="17"/>
       <c r="B3" t="s">
         <v>109</v>
       </c>
@@ -2828,7 +2828,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="16"/>
+      <c r="A4" s="17"/>
       <c r="B4" t="s">
         <v>110</v>
       </c>
@@ -2840,7 +2840,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="16"/>
+      <c r="A5" s="17"/>
       <c r="B5" t="s">
         <v>111</v>
       </c>
@@ -2852,7 +2852,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="16"/>
+      <c r="A6" s="17"/>
       <c r="B6" t="s">
         <v>112</v>
       </c>
@@ -2948,8 +2948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08DF47FD-C3D9-4389-858D-B22F9241D6AC}">
   <dimension ref="D6:G27"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3125,7 +3125,7 @@
       <c r="D23" t="s">
         <v>90</v>
       </c>
-      <c r="E23" s="17" t="s">
+      <c r="E23" s="18" t="s">
         <v>86</v>
       </c>
       <c r="F23" t="s">
@@ -3133,13 +3133,13 @@
       </c>
     </row>
     <row r="24" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="E24" s="17"/>
+      <c r="E24" s="18"/>
     </row>
     <row r="26" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D26" t="s">
         <v>91</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="E26" s="18" t="s">
         <v>86</v>
       </c>
       <c r="F26" t="s">
@@ -3147,7 +3147,7 @@
       </c>
     </row>
     <row r="27" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="E27" s="17"/>
+      <c r="E27" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3163,7 +3163,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B00991DA-B335-496E-B732-DEB159B120EA}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" view="pageLayout" topLeftCell="A34" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView showRuler="0" view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -3271,7 +3271,7 @@
       <c r="C11" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="12" t="s">
         <v>186</v>
       </c>
       <c r="E11" s="10">
@@ -3414,7 +3414,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="18"/>
+      <c r="A24" s="19"/>
       <c r="B24" s="9" t="s">
         <v>144</v>
       </c>
@@ -3429,7 +3429,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="18"/>
+      <c r="A25" s="19"/>
       <c r="B25" s="9" t="s">
         <v>146</v>
       </c>
@@ -3534,7 +3534,7 @@
       <c r="C34" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="D34" s="19" t="s">
+      <c r="D34" s="12" t="s">
         <v>165</v>
       </c>
       <c r="E34" s="10">
@@ -3548,7 +3548,7 @@
       <c r="C35" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="D35" s="19" t="s">
+      <c r="D35" s="12" t="s">
         <v>168</v>
       </c>
       <c r="E35" s="10">
@@ -3562,7 +3562,7 @@
       <c r="C36" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="D36" s="19" t="s">
+      <c r="D36" s="12" t="s">
         <v>171</v>
       </c>
       <c r="E36" s="10">
@@ -3576,7 +3576,7 @@
       <c r="C37" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="D37" s="19" t="s">
+      <c r="D37" s="12" t="s">
         <v>173</v>
       </c>
       <c r="E37" s="10">
@@ -3590,7 +3590,7 @@
       <c r="C38" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="D38" s="19" t="s">
+      <c r="D38" s="12" t="s">
         <v>188</v>
       </c>
       <c r="E38" s="10">
@@ -3604,7 +3604,7 @@
       <c r="C39" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="D39" s="19" t="s">
+      <c r="D39" s="12" t="s">
         <v>191</v>
       </c>
       <c r="E39" s="10">
